--- a/lista adresów.xlsx
+++ b/lista adresów.xlsx
@@ -279,20 +279,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="44.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="9" style="0" width="8.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,7 +712,6 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="D1:G1"/>
